--- a/DataFiles_Excel/Maps/AwardsByLocation/World/World_Discretionary/World_Discretionary_NIH.xlsx
+++ b/DataFiles_Excel/Maps/AwardsByLocation/World/World_Discretionary/World_Discretionary_NIH.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jim.ide\Desktop\annual-report-html2excel\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Engineering Projects\Annual Report\2016-html2excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -211,7 +211,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +354,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -536,7 +555,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -651,6 +670,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -696,32 +756,44 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="6" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1078,6 +1150,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1087,648 +1160,648 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="3" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>10</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <v>1315821</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>18</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="5">
         <v>8952447</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="4">
         <v>3</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>505618</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="4">
         <v>1</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="5">
         <v>276309</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="4">
         <v>1</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="5">
         <v>558233</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="4">
         <v>3</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="5">
         <v>1269295</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="4">
         <v>8</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="5">
         <v>2901793</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="4">
         <v>108</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="5">
         <v>38980102</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="4">
         <v>10</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="5">
         <v>1984300</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="4">
         <v>4</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="5">
         <v>2211486</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="4">
         <v>4</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="5">
         <v>1052932</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="4">
         <v>12</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="5">
         <v>4143730</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="4">
         <v>1</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="5">
         <v>30240</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="4">
         <v>16</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="5">
         <v>12782529</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="4">
         <v>8</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="5">
         <v>2042529</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="4">
         <v>2</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="5">
         <v>1327275</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="4">
         <v>1</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="5">
         <v>1110670</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="4">
         <v>2</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="5">
         <v>1013843</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="4">
         <v>6</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="5">
         <v>1534387</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="4">
         <v>2</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="5">
         <v>429766</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="4">
         <v>4</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="5">
         <v>1319489</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="4">
         <v>1</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="5">
         <v>75284</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="4">
         <v>2</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="5">
         <v>381907</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="4">
         <v>1</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="5">
         <v>353502</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="4">
         <v>5</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="5">
         <v>1065902</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="4">
         <v>1</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="5">
         <v>136728</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="4">
         <v>4</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="5">
         <v>953380</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="4">
         <v>2</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="5">
         <v>652872</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="4">
         <v>3</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="5">
         <v>919701</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="4">
         <v>5</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="5">
         <v>1417263</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="4">
         <v>1</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="5">
         <v>346616</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="4">
         <v>10</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="5">
         <v>5430468</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="4">
         <v>2</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="5">
         <v>312984</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="4">
         <v>16</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="5">
         <v>5223909</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="4">
         <v>1</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="5">
         <v>333336</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="4">
         <v>72</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="5">
         <v>45651127</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="4">
         <v>1</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="5">
         <v>308231</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="4">
         <v>1</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="5">
         <v>118638</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="4">
         <v>67</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="5">
         <v>28244743</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="4">
         <v>3</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="5">
         <v>891441</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="4">
         <v>2</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="5">
         <v>168551</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="4">
         <v>1</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="5">
         <v>376951</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="4">
         <v>5</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="5">
         <v>1490342</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="4">
         <v>10</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="5">
         <v>5495096</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="4">
         <v>1</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="5">
         <v>640000</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="4">
         <v>8</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="5">
         <v>2862593</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="4">
         <v>1</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="5">
         <v>137642</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="4">
         <v>13</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="5">
         <v>3931439</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="4">
         <v>41</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="5">
         <v>23030634</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="6">
         <v>51115</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="5">
         <v>23311714802</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="4">
         <v>2</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="5">
         <v>1383174</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="4">
         <v>2</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="5">
         <v>255311</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="4">
         <v>6</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="5">
         <v>1282338</v>
       </c>
     </row>
